--- a/biology/Médecine/African_Journal_of_Traditional,_Complementary_and_Alternative_Medicines/African_Journal_of_Traditional,_Complementary_and_Alternative_Medicines.xlsx
+++ b/biology/Médecine/African_Journal_of_Traditional,_Complementary_and_Alternative_Medicines/African_Journal_of_Traditional,_Complementary_and_Alternative_Medicines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'African Journal of Traditional, Complementary and Alternative Medicines est une revue médicale en libre accès à comité de lecture couvrant la recherche sur les plantes médicinales, la médecine traditionnelle, la médecine alternative complémentaire et les technologies alimentaires et agricoles. Il est inclus sur la liste de Jeffrey Beall des « revues savantes en libre accès prédatrices potentielles, possibles ou probables[1]. »
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'African Journal of Traditional, Complementary and Alternative Medicines est une revue médicale en libre accès à comité de lecture couvrant la recherche sur les plantes médicinales, la médecine traditionnelle, la médecine alternative complémentaire et les technologies alimentaires et agricoles. Il est inclus sur la liste de Jeffrey Beall des « revues savantes en libre accès prédatrices potentielles, possibles ou probables. »
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Résumé et indexation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le journal est résumé et indexé dans :
-Current Contents - Médecine clinique [2]
-Index Medicus/MEDLINE / PubMed [3]
+Current Contents - Médecine clinique 
+Index Medicus/MEDLINE / PubMed 
 Science Citation Index
-Scopus [4].
-Selon le Journal Citation Reports, la revue a un facteur d'impact 2015 de 0,506[5].
+Scopus .
+Selon le Journal Citation Reports, la revue a un facteur d'impact 2015 de 0,506.
 </t>
         </is>
       </c>
